--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -105,76 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -191,8 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,21 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,61 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,121 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,34 +430,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,11 +467,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="C3:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1067,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="18" spans="3:14">

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335"/>
+    <workbookView windowWidth="27870" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,6 +83,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,14 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,13 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -146,6 +162,22 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,45 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -204,6 +197,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -212,16 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +236,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,121 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,24 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -494,6 +485,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,168 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -681,8 +681,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1006,113 +1006,247 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N14"/>
+  <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" ht="18" spans="3:14">
-      <c r="C3" s="1" t="s">
+    <row r="2" ht="18.75" spans="2:13">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="3:14">
-      <c r="C4" s="1" t="s">
+    <row r="3" ht="18.75" spans="2:13">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="3:14">
-      <c r="C5" s="1" t="s">
+    <row r="4" ht="18.75" spans="2:13">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="3:14">
-      <c r="C6" s="1" t="s">
+    <row r="5" ht="18.75" spans="2:13">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:14">
-      <c r="C7" s="1" t="s">
+    <row r="6" ht="18.75" spans="2:13">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="3:14">
-      <c r="C8" s="1" t="s">
+    <row r="7" ht="18.75" spans="2:13">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="3:14">
-      <c r="C9" s="1" t="s">
+    <row r="8" ht="18.75" spans="2:13">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="3:14">
-      <c r="C10" s="1" t="s">
+    <row r="9" ht="18.75" spans="2:13">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="3:14">
-      <c r="C11" s="1" t="s">
+    <row r="10" ht="18.75" spans="2:13">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="3:14">
-      <c r="C12" s="1" t="s">
+    <row r="11" ht="18.75" spans="2:13">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="3:14">
-      <c r="C13" s="1" t="s">
+    <row r="12" ht="18.75" spans="2:13">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="3:14">
-      <c r="C14" s="1" t="s">
+    <row r="13" ht="18.75" spans="2:13">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
       <formula1>"✓,✗"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -14,26 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Лабораторная работа 1. Основы языка С# ........................................................ 3</t>
   </si>
   <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 2. Массивы....................................................................... 6</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 3. Классы.......................................................................... 8</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 4. Windows Forms.......................................................... 10</t>
+  </si>
+  <si>
     <t>✗</t>
   </si>
   <si>
-    <t>Лабораторная работа 2. Массивы....................................................................... 6</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 3. Классы.......................................................................... 8</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 4. Windows Forms.......................................................... 10</t>
-  </si>
-  <si>
     <t>Лабораторная работа 5. Файлы......................................................................... 12</t>
   </si>
   <si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Лабораторная работа 12. Творческий проект.................................................. 21</t>
+  </si>
+  <si>
+    <t>ДЗ1</t>
+  </si>
+  <si>
+    <t>ДЗ2</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,9 +89,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,20 +128,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -121,53 +135,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,11 +180,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,6 +196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -206,14 +213,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -222,6 +221,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,16 +440,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,6 +467,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,7 +514,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,168 +533,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1047,12 +1053,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="2:13">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1065,12 +1071,12 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="2:13">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1083,7 +1089,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="2:13">
@@ -1101,7 +1107,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="2:13">
@@ -1119,7 +1125,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="2:13">
@@ -1137,7 +1143,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="2:13">
@@ -1155,7 +1161,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="2:13">
@@ -1173,7 +1179,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="2:13">
@@ -1191,7 +1197,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="2:13">
@@ -1209,7 +1215,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="18.75" spans="2:13">
@@ -1227,11 +1233,47 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="2:13">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="2:13">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
@@ -1244,9 +1286,11 @@
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12;M13:M15">
       <formula1>"✓,✗"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13095"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,14 +90,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,83 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -204,23 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,25 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,127 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,41 +439,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -481,16 +446,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +477,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -519,17 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,12 +1015,12 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:13">
+    <row r="2" ht="18" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="2:13">
+    <row r="3" ht="18" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="2:13">
+    <row r="4" ht="18" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="2:13">
+    <row r="5" ht="18" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="2:13">
+    <row r="6" ht="18" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="2:13">
+    <row r="7" ht="18" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="2:13">
+    <row r="8" ht="18" spans="2:13">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="2:13">
+    <row r="9" ht="18" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="2:13">
+    <row r="10" ht="18" spans="2:13">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,10 +1179,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="2:13">
+    <row r="11" ht="18" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="2:13">
+    <row r="12" ht="18" spans="2:13">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="2:13">
+    <row r="13" ht="18" spans="2:13">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="2:13">
+    <row r="14" ht="18" spans="2:13">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="2:13">
+    <row r="15" ht="18" spans="2:13">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335"/>
+    <workbookView windowWidth="27870" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -97,82 +97,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -210,17 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,31 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,151 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +439,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,6 +497,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,59 +527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,12 +1015,12 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" ht="18" spans="2:13">
+    <row r="2" ht="18.75" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="2:13">
+    <row r="3" ht="18.75" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="2:13">
+    <row r="4" ht="18.75" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="2:13">
+    <row r="5" ht="18.75" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="2:13">
+    <row r="6" ht="18.75" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="2:13">
+    <row r="7" ht="18.75" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="2:13">
+    <row r="8" ht="18.75" spans="2:13">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="2:13">
+    <row r="9" ht="18.75" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="2:13">
+    <row r="10" ht="18.75" spans="2:13">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="2:13">
+    <row r="11" ht="18.75" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,10 +1197,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="2:13">
+    <row r="12" ht="18.75" spans="2:13">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,10 +1215,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="2:13">
+    <row r="13" ht="18.75" spans="2:13">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="2:13">
+    <row r="14" ht="18.75" spans="2:13">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="2:13">
+    <row r="15" ht="18.75" spans="2:13">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -31,10 +31,10 @@
     <t>Лабораторная работа 4. Windows Forms.......................................................... 10</t>
   </si>
   <si>
+    <t>Лабораторная работа 5. Файлы......................................................................... 12</t>
+  </si>
+  <si>
     <t>✗</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 5. Файлы......................................................................... 12</t>
   </si>
   <si>
     <t>Лабораторная работа 6. Делегаты .................................................................... 13</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,6 +90,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -97,14 +104,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,92 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -219,6 +203,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -227,7 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,144 +410,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,24 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,13 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,60 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -538,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1089,12 +1089,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="2:13">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1107,7 +1107,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="2:13">
@@ -1233,7 +1233,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="2:13">
@@ -1269,7 +1269,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -34,28 +34,28 @@
     <t>Лабораторная работа 5. Файлы......................................................................... 12</t>
   </si>
   <si>
+    <t>Лабораторная работа 6. Делегаты .................................................................... 13</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 7. Рефлексия .................................................................. 15</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 8. Исключения............................................................... 16</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 9. Сериализация ............................................................ 18</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 10. Интерфейсы, компаратор....................................... 19</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 11. Интерфейсы, компаратор....................................... 20</t>
+  </si>
+  <si>
+    <t>Лабораторная работа 12. Творческий проект.................................................. 21</t>
+  </si>
+  <si>
     <t>✗</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 6. Делегаты .................................................................... 13</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 7. Рефлексия .................................................................. 15</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 8. Исключения............................................................... 16</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 9. Сериализация ............................................................ 18</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 10. Интерфейсы, компаратор....................................... 19</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 11. Интерфейсы, компаратор....................................... 20</t>
-  </si>
-  <si>
-    <t>Лабораторная работа 12. Творческий проект.................................................. 21</t>
   </si>
   <si>
     <t>ДЗ1</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,23 +119,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,13 +219,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -242,31 +242,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +436,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +462,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -477,20 +497,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,162 +533,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1107,12 +1107,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="2:13">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="8" ht="18.75" spans="2:13">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="9" ht="18.75" spans="2:13">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="10" ht="18.75" spans="2:13">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="11" ht="18.75" spans="2:13">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="12" ht="18.75" spans="2:13">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" ht="18.75" spans="2:13">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="2:13">
@@ -1269,7 +1269,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -55,13 +55,13 @@
     <t>Лабораторная работа 12. Творческий проект.................................................. 21</t>
   </si>
   <si>
+    <t>ДЗ1</t>
+  </si>
+  <si>
+    <t>ДЗ2</t>
+  </si>
+  <si>
     <t>✗</t>
-  </si>
-  <si>
-    <t>ДЗ1</t>
-  </si>
-  <si>
-    <t>ДЗ2</t>
   </si>
 </sst>
 </file>
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -110,6 +110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -119,22 +135,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -152,6 +152,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +203,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -204,30 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,31 +242,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,15 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,55 +538,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,91 +592,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1233,12 +1233,12 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="2:13">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="15" ht="18.75" spans="2:13">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1269,7 +1269,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Лабораторная работа 1. Основы языка С# ........................................................ 3</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>ДЗ2</t>
-  </si>
-  <si>
-    <t>✗</t>
   </si>
 </sst>
 </file>
@@ -69,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,12 +87,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,38 +138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -152,13 +157,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -203,16 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +210,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +433,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -525,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,148 +535,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1012,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1269,7 +1266,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/прогресс.xlsx
+++ b/docs/прогресс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13095"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Лабораторная работа 1. Основы языка С# ........................................................ 3</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>ДЗ2</t>
+  </si>
+  <si>
+    <t>ДЗ3</t>
   </si>
 </sst>
 </file>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,9 +103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +117,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -124,6 +127,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -135,6 +146,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -185,11 +212,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,31 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +436,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,7 +470,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,6 +482,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,38 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,15 +1012,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:13">
+    <row r="2" ht="18" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="2:13">
+    <row r="3" ht="18" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="2:13">
+    <row r="4" ht="18" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="2:13">
+    <row r="5" ht="18" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="2:13">
+    <row r="6" ht="18" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="2:13">
+    <row r="7" ht="18" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="2:13">
+    <row r="8" ht="18" spans="2:13">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="2:13">
+    <row r="9" ht="18" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="2:13">
+    <row r="10" ht="18" spans="2:13">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="2:13">
+    <row r="11" ht="18" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="2:13">
+    <row r="12" ht="18" spans="2:13">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="2:13">
+    <row r="13" ht="18" spans="2:13">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="2:13">
+    <row r="14" ht="18" spans="2:13">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="2:13">
+    <row r="15" ht="18" spans="2:13">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,8 +1272,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" ht="18" spans="2:13">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
@@ -1285,9 +1306,10 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12;M13:M15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16;M2:M12;M13:M15">
       <formula1>"✓,✗"</formula1>
     </dataValidation>
   </dataValidations>
